--- a/auction_results.xlsx
+++ b/auction_results.xlsx
@@ -8,6 +8,7 @@
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="aaa" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:F131"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,88 +437,97 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Player No</t>
+          <t>id</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Player Name</t>
+          <t>player_id</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Role</t>
+          <t>full_name</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Team</t>
+          <t>team</t>
         </is>
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>Price</t>
+          <t>price</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>ts</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Sandeep</t>
-        </is>
+        <v>274</v>
+      </c>
+      <c r="B2" t="n">
+        <v>61</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>All Rounder</t>
+          <t xml:space="preserve">Abhradip Maji </t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>Hritik</t>
+          <t>UNSOLD</t>
         </is>
       </c>
       <c r="E2" t="n">
-        <v>60</v>
+        <v>0</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:17:37</t>
+        </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Devesh</t>
-        </is>
+        <v>275</v>
+      </c>
+      <c r="B3" t="n">
+        <v>114</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>All Rounder</t>
+          <t>NITAI MONDAL</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Mangesh</t>
+          <t>UNSOLD</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>100</v>
+        <v>0</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:17:45</t>
+        </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>1</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>DC</t>
-        </is>
+        <v>276</v>
+      </c>
+      <c r="B4" t="n">
+        <v>59</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>All Rounder</t>
+          <t>Subham Dutta</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -527,29 +537,3362 @@
       </c>
       <c r="E4" t="n">
         <v>0</v>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:17:49</t>
+        </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
+        <v>277</v>
+      </c>
+      <c r="B5" t="n">
+        <v>58</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibakar Roy </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:17:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>278</v>
+      </c>
+      <c r="B6" t="n">
+        <v>85</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bisweswar Mahato </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>279</v>
+      </c>
+      <c r="B7" t="n">
+        <v>97</v>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Sukanta Hembram</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>280</v>
+      </c>
+      <c r="B8" t="n">
+        <v>117</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Prasenjit Mahata </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>281</v>
+      </c>
+      <c r="B9" t="n">
+        <v>14</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yash Verma </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>282</v>
+      </c>
+      <c r="B10" t="n">
+        <v>52</v>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Subrata patra</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:34</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>283</v>
+      </c>
+      <c r="B11" t="n">
+        <v>78</v>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Soubhagya Adhikari </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>284</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anupam Ghosh </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>285</v>
+      </c>
+      <c r="B13" t="n">
+        <v>128</v>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Debjyoti Das</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:18:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>286</v>
+      </c>
+      <c r="B14" t="n">
+        <v>36</v>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>SURAJIT MANDAL</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:19:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>287</v>
+      </c>
+      <c r="B15" t="n">
+        <v>81</v>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Abhijit Singh</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:19:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>288</v>
+      </c>
+      <c r="B16" t="n">
+        <v>17</v>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Rajesh Kundu</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:19:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>289</v>
+      </c>
+      <c r="B17" t="n">
+        <v>75</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amit Das </t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:19:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>290</v>
+      </c>
+      <c r="B18" t="n">
+        <v>86</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sayantan Biswas </t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:19:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>291</v>
+      </c>
+      <c r="B19" t="n">
+        <v>106</v>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rittik Rahaman </t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:19:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>292</v>
+      </c>
+      <c r="B20" t="n">
+        <v>125</v>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>SOURAV DAS</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:20:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>293</v>
+      </c>
+      <c r="B21" t="n">
+        <v>18</v>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUMYADEEP PATRA </t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:20:56</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>294</v>
+      </c>
+      <c r="B22" t="n">
+        <v>98</v>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Tufan Mondal</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:23:06</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>295</v>
+      </c>
+      <c r="B23" t="n">
+        <v>120</v>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Gourisankar Maity </t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:23:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>296</v>
+      </c>
+      <c r="B24" t="n">
+        <v>116</v>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Papun patra </t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:24:09</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>297</v>
+      </c>
+      <c r="B25" t="n">
+        <v>10</v>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AYAN BAG </t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:25:25</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>298</v>
+      </c>
+      <c r="B26" t="n">
+        <v>22</v>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Rohit Middya</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:25:35</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>299</v>
+      </c>
+      <c r="B27" t="n">
+        <v>99</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Asit Kumar Mahato </t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:25:45</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>300</v>
+      </c>
+      <c r="B28" t="n">
+        <v>24</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">JIT LAYEK </t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:25:55</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>301</v>
+      </c>
+      <c r="B29" t="n">
+        <v>100</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shantanu Pal </t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:26:05</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>302</v>
+      </c>
+      <c r="B30" t="n">
+        <v>51</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">AMIT MUKHERJEE </t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:26:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>303</v>
+      </c>
+      <c r="B31" t="n">
+        <v>95</v>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Shubham Kumar Pandey </t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:26:26</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>304</v>
+      </c>
+      <c r="B32" t="n">
+        <v>35</v>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arijit Ghosal </t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:26:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>305</v>
+      </c>
+      <c r="B33" t="n">
+        <v>19</v>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Subhrodip Roy </t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:26:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>306</v>
+      </c>
+      <c r="B34" t="n">
+        <v>38</v>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAJDEEP MANDAL </t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:26:57</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>307</v>
+      </c>
+      <c r="B35" t="n">
+        <v>79</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Hemanta sing sardar</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:27:07</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>308</v>
+      </c>
+      <c r="B36" t="n">
+        <v>33</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Anjan Kumar mandal </t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:27:17</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>309</v>
+      </c>
+      <c r="B37" t="n">
+        <v>16</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Koushik Saha</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:27:27</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>310</v>
+      </c>
+      <c r="B38" t="n">
+        <v>69</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arpan Jana </t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:27:37</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>311</v>
+      </c>
+      <c r="B39" t="n">
+        <v>20</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">RAHUL KARMAKAR </t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:27:47</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>312</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Bodhisattwa Gorain</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:28:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>313</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Tushar Mondal</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:28:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>314</v>
+      </c>
+      <c r="B42" t="n">
+        <v>109</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Suroj Hansda</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:28:30</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>315</v>
+      </c>
+      <c r="B43" t="n">
+        <v>37</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Nadim Rijbi </t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:28:40</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>316</v>
+      </c>
+      <c r="B44" t="n">
+        <v>39</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARUP KUMBHAKAR </t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:28:50</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>317</v>
+      </c>
+      <c r="B45" t="n">
+        <v>82</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Biplab Senapati </t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:29:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>318</v>
+      </c>
+      <c r="B46" t="n">
+        <v>2</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SK EMDAD HOSSEN </t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:29:10</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>319</v>
+      </c>
+      <c r="B47" t="n">
+        <v>40</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Mukesh Bauri</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:29:20</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>320</v>
+      </c>
+      <c r="B48" t="n">
+        <v>26</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sudipto Ghosh </t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:29:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>321</v>
+      </c>
+      <c r="B49" t="n">
+        <v>96</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Upahar Mahata </t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:29:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>322</v>
+      </c>
+      <c r="B50" t="n">
+        <v>73</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Abu Bakar </t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:29:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>323</v>
+      </c>
+      <c r="B51" t="n">
+        <v>92</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhik Hazra </t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:30:01</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>324</v>
+      </c>
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Bishnu Mukherjee</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E52" t="n">
+        <v>0</v>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:30:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>325</v>
+      </c>
+      <c r="B53" t="n">
+        <v>23</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Piyal Manna</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E53" t="n">
+        <v>0</v>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:30:21</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>326</v>
+      </c>
+      <c r="B54" t="n">
+        <v>7</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PRADIP RAJAK </t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E54" t="n">
+        <v>0</v>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:30:31</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>327</v>
+      </c>
+      <c r="B55" t="n">
+        <v>118</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>SK KABIR AHAMED</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E55" t="n">
+        <v>0</v>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:31:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>328</v>
+      </c>
+      <c r="B56" t="n">
+        <v>87</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>SOUMAJIT PRAMANIK</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E56" t="n">
+        <v>0</v>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:31:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>329</v>
+      </c>
+      <c r="B57" t="n">
+        <v>113</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Partha Sarathi Maji </t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E57" t="n">
+        <v>0</v>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:31:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>330</v>
+      </c>
+      <c r="B58" t="n">
+        <v>88</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Abdul kawsar Rahaman</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E58" t="n">
+        <v>0</v>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:31:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>331</v>
+      </c>
+      <c r="B59" t="n">
+        <v>8</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ramkrishna Rewani </t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E59" t="n">
+        <v>0</v>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:31:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>332</v>
+      </c>
+      <c r="B60" t="n">
+        <v>89</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Aditya Hansda </t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E60" t="n">
+        <v>0</v>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:32:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>333</v>
+      </c>
+      <c r="B61" t="n">
+        <v>121</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t xml:space="preserve">PURNABRATA DEY </t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E61" t="n">
+        <v>0</v>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:32:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>334</v>
+      </c>
+      <c r="B62" t="n">
+        <v>46</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Santu khanrah </t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E62" t="n">
+        <v>0</v>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:32:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>335</v>
+      </c>
+      <c r="B63" t="n">
+        <v>76</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KUNTAL MONDAL </t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E63" t="n">
+        <v>0</v>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:32:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>336</v>
+      </c>
+      <c r="B64" t="n">
+        <v>29</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>SUJAN ROY</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E64" t="n">
+        <v>0</v>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:32:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>337</v>
+      </c>
+      <c r="B65" t="n">
+        <v>129</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Rezwan Khan</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E65" t="n">
+        <v>0</v>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:32:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>338</v>
+      </c>
+      <c r="B66" t="n">
+        <v>28</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chandan yadav </t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E66" t="n">
+        <v>0</v>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:33:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>339</v>
+      </c>
+      <c r="B67" t="n">
+        <v>21</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Tanmoy Mondal </t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E67" t="n">
+        <v>0</v>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:33:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>340</v>
+      </c>
+      <c r="B68" t="n">
+        <v>84</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Arnab Ghosh</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E68" t="n">
+        <v>0</v>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:33:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>341</v>
+      </c>
+      <c r="B69" t="n">
+        <v>34</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>SURJA DHAK</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E69" t="n">
+        <v>0</v>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:33:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>342</v>
+      </c>
+      <c r="B70" t="n">
+        <v>31</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ayan Maity </t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E70" t="n">
+        <v>0</v>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:34:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>343</v>
+      </c>
+      <c r="B71" t="n">
+        <v>12</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ankit Pal </t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E71" t="n">
+        <v>0</v>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:34:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>344</v>
+      </c>
+      <c r="B72" t="n">
+        <v>55</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAPPA DAS </t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E72" t="n">
+        <v>0</v>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:34:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>345</v>
+      </c>
+      <c r="B73" t="n">
+        <v>124</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sahin Uddin Jamader </t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E73" t="n">
+        <v>0</v>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:34:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>346</v>
+      </c>
+      <c r="B74" t="n">
+        <v>67</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SOUMEN MANDAL </t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E74" t="n">
+        <v>0</v>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:34:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>347</v>
+      </c>
+      <c r="B75" t="n">
+        <v>77</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swaraj Banerjee </t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E75" t="n">
+        <v>0</v>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:35:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>348</v>
+      </c>
+      <c r="B76" t="n">
+        <v>47</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Dipayan Modak</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E76" t="n">
+        <v>0</v>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:35:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>349</v>
+      </c>
+      <c r="B77" t="n">
+        <v>102</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sudip Mayra </t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E77" t="n">
+        <v>0</v>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:35:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>350</v>
+      </c>
+      <c r="B78" t="n">
+        <v>104</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Suman Mahato </t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E78" t="n">
+        <v>0</v>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:35:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>351</v>
+      </c>
+      <c r="B79" t="n">
+        <v>112</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SAGEN MURMU </t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E79" t="n">
+        <v>0</v>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:35:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>352</v>
+      </c>
+      <c r="B80" t="n">
+        <v>4</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Jishu Das</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E80" t="n">
+        <v>0</v>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:35:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>353</v>
+      </c>
+      <c r="B81" t="n">
+        <v>90</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>DEBJIT BISWAS</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E81" t="n">
+        <v>0</v>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:36:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>354</v>
+      </c>
+      <c r="B82" t="n">
+        <v>105</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Saikat pradhan </t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E82" t="n">
+        <v>0</v>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:36:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>355</v>
+      </c>
+      <c r="B83" t="n">
+        <v>43</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Biswajit Dutta</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E83" t="n">
+        <v>0</v>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:36:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>356</v>
+      </c>
+      <c r="B84" t="n">
+        <v>110</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sayan Mondal </t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E84" t="n">
+        <v>0</v>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:36:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>357</v>
+      </c>
+      <c r="B85" t="n">
+        <v>44</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dibyendu Patra </t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E85" t="n">
+        <v>0</v>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:36:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>358</v>
+      </c>
+      <c r="B86" t="n">
+        <v>62</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>MRINAL MONDAL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E86" t="n">
+        <v>0</v>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:36:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>359</v>
+      </c>
+      <c r="B87" t="n">
+        <v>60</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Md Aftab Hossain</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E87" t="n">
+        <v>0</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:37:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>360</v>
+      </c>
+      <c r="B88" t="n">
+        <v>68</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Akash Mahato </t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E88" t="n">
+        <v>0</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:37:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>361</v>
+      </c>
+      <c r="B89" t="n">
+        <v>53</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Kamalesh Mahato </t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E89" t="n">
+        <v>0</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:37:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>362</v>
+      </c>
+      <c r="B90" t="n">
+        <v>74</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>MOHIT KUMAR BAURI</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E90" t="n">
+        <v>0</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:37:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>363</v>
+      </c>
+      <c r="B91" t="n">
+        <v>48</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Animesh Haldar </t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E91" t="n">
+        <v>0</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:37:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>364</v>
+      </c>
+      <c r="B92" t="n">
+        <v>93</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Chinmay Patra </t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E92" t="n">
+        <v>0</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:37:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>365</v>
+      </c>
+      <c r="B93" t="n">
+        <v>54</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sk Nasirul </t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E93" t="n">
+        <v>0</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:38:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>366</v>
+      </c>
+      <c r="B94" t="n">
+        <v>111</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Abhay Mandal </t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E94" t="n">
+        <v>0</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:38:18</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>367</v>
+      </c>
+      <c r="B95" t="n">
+        <v>91</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Arkaprava Maity</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E95" t="n">
+        <v>0</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:38:28</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>368</v>
+      </c>
+      <c r="B96" t="n">
+        <v>108</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Md Niyaj Ahamed </t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E96" t="n">
+        <v>0</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:38:38</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>369</v>
+      </c>
+      <c r="B97" t="n">
+        <v>94</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>ARKA DEY</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E97" t="n">
+        <v>0</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:38:48</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>370</v>
+      </c>
+      <c r="B98" t="n">
         <v>5</v>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Mangesh</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>All Rounder</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Sandeep</t>
-        </is>
-      </c>
-      <c r="E5" t="n">
-        <v>60</v>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ARUP KUMAR MAHATHA </t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E98" t="n">
+        <v>0</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:38:58</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>371</v>
+      </c>
+      <c r="B99" t="n">
+        <v>41</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Ambuj Mahato</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E99" t="n">
+        <v>0</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:39:08</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>372</v>
+      </c>
+      <c r="B100" t="n">
+        <v>63</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t xml:space="preserve">KUNAL MAHATO </t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E100" t="n">
+        <v>0</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:40:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>373</v>
+      </c>
+      <c r="B101" t="n">
+        <v>126</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>CHIRU</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E101" t="n">
+        <v>0</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:40:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>374</v>
+      </c>
+      <c r="B102" t="n">
+        <v>65</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>AJOY LOHAR</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E102" t="n">
+        <v>0</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:40:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>375</v>
+      </c>
+      <c r="B103" t="n">
+        <v>11</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t xml:space="preserve">SUVAJIT DE </t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E103" t="n">
+        <v>0</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:40:41</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>376</v>
+      </c>
+      <c r="B104" t="n">
+        <v>25</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>BARSHAN GHOSH</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E104" t="n">
+        <v>0</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:40:51</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>377</v>
+      </c>
+      <c r="B105" t="n">
+        <v>103</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>MUFTY MASUDULLA</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E105" t="n">
+        <v>0</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:41:02</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>378</v>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Shibam Chandra</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E106" t="n">
+        <v>0</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:41:11</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>379</v>
+      </c>
+      <c r="B107" t="n">
+        <v>66</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Koushik Mondal</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E107" t="n">
+        <v>0</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:41:22</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>380</v>
+      </c>
+      <c r="B108" t="n">
+        <v>32</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Rahul Mahato</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E108" t="n">
+        <v>0</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:41:32</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>381</v>
+      </c>
+      <c r="B109" t="n">
+        <v>71</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Yuboraj Sarkar </t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E109" t="n">
+        <v>0</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:41:42</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>382</v>
+      </c>
+      <c r="B110" t="n">
+        <v>83</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>MRIGANKA MAHATO</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E110" t="n">
+        <v>0</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:41:52</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>383</v>
+      </c>
+      <c r="B111" t="n">
+        <v>45</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>SUBIR SHIT</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E111" t="n">
+        <v>0</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:42:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>384</v>
+      </c>
+      <c r="B112" t="n">
+        <v>49</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Debojyoti Saha </t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E112" t="n">
+        <v>0</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:42:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>385</v>
+      </c>
+      <c r="B113" t="n">
+        <v>64</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sanat Manna </t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E113" t="n">
+        <v>0</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:42:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>386</v>
+      </c>
+      <c r="B114" t="n">
+        <v>122</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Alexa</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E114" t="n">
+        <v>0</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:42:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>387</v>
+      </c>
+      <c r="B115" t="n">
+        <v>115</v>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t xml:space="preserve">TATSAT DEY </t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E115" t="n">
+        <v>0</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:42:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>388</v>
+      </c>
+      <c r="B116" t="n">
+        <v>27</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dipmoy Barik </t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E116" t="n">
+        <v>0</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:42:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>389</v>
+      </c>
+      <c r="B117" t="n">
+        <v>127</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Ashim Chattaraj</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E117" t="n">
+        <v>0</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:43:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>390</v>
+      </c>
+      <c r="B118" t="n">
+        <v>15</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Koushik mandal </t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E118" t="n">
+        <v>0</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:43:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="n">
+        <v>391</v>
+      </c>
+      <c r="B119" t="n">
+        <v>101</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hiranmoy Singha Mahata </t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E119" t="n">
+        <v>0</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:43:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="n">
+        <v>392</v>
+      </c>
+      <c r="B120" t="n">
+        <v>70</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Rahul Chattaraj </t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E120" t="n">
+        <v>0</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:43:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="n">
+        <v>393</v>
+      </c>
+      <c r="B121" t="n">
+        <v>57</v>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Somenath Dutta </t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E121" t="n">
+        <v>0</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:43:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="n">
+        <v>394</v>
+      </c>
+      <c r="B122" t="n">
+        <v>9</v>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Mounik Kumar Murmu </t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E122" t="n">
+        <v>0</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:43:54</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="n">
+        <v>395</v>
+      </c>
+      <c r="B123" t="n">
+        <v>119</v>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Apurba Kumar </t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E123" t="n">
+        <v>0</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:44:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="n">
+        <v>396</v>
+      </c>
+      <c r="B124" t="n">
+        <v>30</v>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>Parichay Samadder</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E124" t="n">
+        <v>0</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:44:13</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="n">
+        <v>397</v>
+      </c>
+      <c r="B125" t="n">
+        <v>80</v>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bipranath Panday </t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E125" t="n">
+        <v>0</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:44:23</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="n">
+        <v>398</v>
+      </c>
+      <c r="B126" t="n">
+        <v>107</v>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t xml:space="preserve">BAPAN MAJUMDAR </t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E126" t="n">
+        <v>0</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:44:33</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="n">
+        <v>399</v>
+      </c>
+      <c r="B127" t="n">
+        <v>72</v>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>SUBHAJIT OJHA</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E127" t="n">
+        <v>0</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:44:43</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="n">
+        <v>400</v>
+      </c>
+      <c r="B128" t="n">
+        <v>42</v>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>Anjan Shyamal</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E128" t="n">
+        <v>0</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:44:53</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="n">
+        <v>401</v>
+      </c>
+      <c r="B129" t="n">
+        <v>13</v>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>Abhishek Debnath</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E129" t="n">
+        <v>0</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:45:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="n">
+        <v>402</v>
+      </c>
+      <c r="B130" t="n">
+        <v>123</v>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t xml:space="preserve">ABHIJIT MANDAL </t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>UNSOLD</t>
+        </is>
+      </c>
+      <c r="E130" t="n">
+        <v>0</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>2025-09-03 10:46:03</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="n">
+        <v>403</v>
+      </c>
+      <c r="B131" t="n">
+        <v>77</v>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swaraj Banerjee </t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>aaa</t>
+        </is>
+      </c>
+      <c r="E131" t="n">
+        <v>30</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>2025-09-05 13:49:01</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Player ID</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>FULL NAME</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Price</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Swaraj Banerjee </t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
